--- a/Saved_file/EM002/2026_02/sap_data.xlsx
+++ b/Saved_file/EM002/2026_02/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST2027</t>
+          <t>CUST2662</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18823673</v>
+        <v>14999987</v>
       </c>
       <c r="E2" t="n">
-        <v>3056079</v>
+        <v>1753163</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,12 +524,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST7646</t>
+          <t>CUST3154</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8819444</v>
+        <v>8026133</v>
       </c>
       <c r="E3" t="n">
-        <v>1546831</v>
+        <v>912080</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST7475</t>
+          <t>CUST3727</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11839781</v>
+        <v>18842859</v>
       </c>
       <c r="E4" t="n">
-        <v>1247192</v>
+        <v>3591467</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -654,25 +654,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST3906</t>
+          <t>CUST4116</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9243329</v>
+        <v>19620919</v>
       </c>
       <c r="E5" t="n">
-        <v>1645071</v>
+        <v>2806736</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -686,12 +686,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST7488</t>
+          <t>CUST9735</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9042706</v>
+        <v>8366586</v>
       </c>
       <c r="E6" t="n">
-        <v>1680066</v>
+        <v>969471</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST8892</t>
+          <t>CUST5329</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16210364</v>
+        <v>8263310</v>
       </c>
       <c r="E7" t="n">
-        <v>3079554</v>
+        <v>900715</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST4656</t>
+          <t>CUST8247</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9914041</v>
+        <v>9622904</v>
       </c>
       <c r="E8" t="n">
-        <v>1909727</v>
+        <v>1300492</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST9438</t>
+          <t>CUST8948</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10528332</v>
+        <v>13094914</v>
       </c>
       <c r="E9" t="n">
-        <v>2098541</v>
+        <v>1753371</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,17 +902,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST8224</t>
+          <t>CUST2125</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12626606</v>
+        <v>17406441</v>
       </c>
       <c r="E10" t="n">
-        <v>1936048</v>
+        <v>2943978</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -978,25 +978,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST7646</t>
+          <t>CUST5329</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17550179</v>
+        <v>22595378</v>
       </c>
       <c r="E11" t="n">
-        <v>3461878</v>
+        <v>2890631</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1010,12 +1010,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST6495</t>
+          <t>CUST4116</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8097966</v>
+        <v>13891525</v>
       </c>
       <c r="E12" t="n">
-        <v>1021596</v>
+        <v>1695782</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST3280</t>
+          <t>CUST3152</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9456406</v>
+        <v>9472359</v>
       </c>
       <c r="E13" t="n">
-        <v>1013747</v>
+        <v>1615222</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>22</v>
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST2869</t>
+          <t>CUST3955</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10165474</v>
+        <v>14417658</v>
       </c>
       <c r="E14" t="n">
-        <v>1739058</v>
+        <v>2416209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST8488</t>
+          <t>CUST5432</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12714528</v>
+        <v>19815837</v>
       </c>
       <c r="E15" t="n">
-        <v>1987121</v>
+        <v>3192761</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST3280</t>
+          <t>CUST9649</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13957324</v>
+        <v>23543185</v>
       </c>
       <c r="E16" t="n">
-        <v>1842673</v>
+        <v>3890530</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1285,12 +1285,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST8892</t>
+          <t>CUST6226</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17460129</v>
+        <v>14094591</v>
       </c>
       <c r="E17" t="n">
-        <v>2148294</v>
+        <v>2095618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST8079</t>
+          <t>CUST6371</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16812639</v>
+        <v>10272361</v>
       </c>
       <c r="E18" t="n">
-        <v>1903051</v>
+        <v>1385863</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST2454</t>
+          <t>CUST4406</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23540014</v>
+        <v>15468323</v>
       </c>
       <c r="E19" t="n">
-        <v>2876134</v>
+        <v>1817789</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST7488</t>
+          <t>CUST3328</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11971632</v>
+        <v>12427977</v>
       </c>
       <c r="E20" t="n">
-        <v>1274429</v>
+        <v>2470323</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1496,12 +1496,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST3441</t>
+          <t>CUST8153</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9415888</v>
+        <v>21115049</v>
       </c>
       <c r="E21" t="n">
-        <v>1646782</v>
+        <v>3540425</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST9438</t>
+          <t>CUST7227</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22095124</v>
+        <v>8365134</v>
       </c>
       <c r="E22" t="n">
-        <v>2746543</v>
+        <v>1303060</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST3102</t>
+          <t>CUST5432</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11510314</v>
+        <v>8396990</v>
       </c>
       <c r="E23" t="n">
-        <v>1828739</v>
+        <v>1469068</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1663,12 +1663,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST2454</t>
+          <t>CUST3142</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>19823731</v>
+        <v>15766877</v>
       </c>
       <c r="E24" t="n">
-        <v>3565256</v>
+        <v>2548914</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST4352</t>
+          <t>CUST8948</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14852036</v>
+        <v>19786177</v>
       </c>
       <c r="E25" t="n">
-        <v>2660709</v>
+        <v>2531118</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1771,12 +1771,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST7475</t>
+          <t>CUST9890</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24918130</v>
+        <v>9145283</v>
       </c>
       <c r="E26" t="n">
-        <v>4120535</v>
+        <v>1561424</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST3441</t>
+          <t>CUST3729</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18329043</v>
+        <v>24398809</v>
       </c>
       <c r="E27" t="n">
-        <v>3091239</v>
+        <v>3085558</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1874,17 +1874,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST2297</t>
+          <t>CUST7227</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24716457</v>
+        <v>13625285</v>
       </c>
       <c r="E28" t="n">
-        <v>4369610</v>
+        <v>1471756</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST9325</t>
+          <t>CUST4782</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14478170</v>
+        <v>21716819</v>
       </c>
       <c r="E29" t="n">
-        <v>2011206</v>
+        <v>3167438</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST7021</t>
+          <t>CUST1160</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>16364510</v>
+        <v>21527495</v>
       </c>
       <c r="E30" t="n">
-        <v>2537771</v>
+        <v>3344435</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST4032</t>
+          <t>CUST3154</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15936477</v>
+        <v>10160248</v>
       </c>
       <c r="E31" t="n">
-        <v>1813110</v>
+        <v>1373506</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,12 +2090,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST7488</t>
+          <t>CUST7159</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19579915</v>
+        <v>9128010</v>
       </c>
       <c r="E32" t="n">
-        <v>2397804</v>
+        <v>1412565</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2149,12 +2149,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST3259</t>
+          <t>CUST9812</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9877532</v>
+        <v>16516914</v>
       </c>
       <c r="E33" t="n">
-        <v>1408759</v>
+        <v>2307385</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST2558</t>
+          <t>CUST3154</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10653785</v>
+        <v>15871727</v>
       </c>
       <c r="E34" t="n">
-        <v>1461322</v>
+        <v>2705018</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST3169</t>
+          <t>CUST1160</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>21411652</v>
+        <v>24077667</v>
       </c>
       <c r="E35" t="n">
-        <v>2172051</v>
+        <v>3195745</v>
       </c>
       <c r="F35" t="n">
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST3191</t>
+          <t>CUST3369</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8089274</v>
+        <v>10146253</v>
       </c>
       <c r="E36" t="n">
-        <v>1412026</v>
+        <v>1233067</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,17 +2360,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST4032</t>
+          <t>CUST4116</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>16003205</v>
+        <v>24837973</v>
       </c>
       <c r="E37" t="n">
-        <v>1700333</v>
+        <v>3986341</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST3209</t>
+          <t>CUST6590</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>18889599</v>
+        <v>20688610</v>
       </c>
       <c r="E38" t="n">
-        <v>2855325</v>
+        <v>3736983</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST5223</t>
+          <t>CUST4116</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>23525852</v>
+        <v>12798923</v>
       </c>
       <c r="E39" t="n">
-        <v>2686053</v>
+        <v>1639014</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST3108</t>
+          <t>CUST5432</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>16369111</v>
+        <v>16569675</v>
       </c>
       <c r="E40" t="n">
-        <v>2537184</v>
+        <v>3264943</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST9480</t>
+          <t>CUST5329</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>20631835</v>
+        <v>21914654</v>
       </c>
       <c r="E41" t="n">
-        <v>3662913</v>
+        <v>3099989</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST2027</t>
+          <t>CUST9287</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>14932594</v>
+        <v>17971546</v>
       </c>
       <c r="E42" t="n">
-        <v>1572768</v>
+        <v>3345953</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST2878</t>
+          <t>CUST9735</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>21500864</v>
+        <v>16830236</v>
       </c>
       <c r="E43" t="n">
-        <v>3949748</v>
+        <v>2151106</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST4188</t>
+          <t>CUST5329</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10529194</v>
+        <v>16761883</v>
       </c>
       <c r="E44" t="n">
-        <v>1374118</v>
+        <v>2183436</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2814,25 +2814,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST8488</t>
+          <t>CUST3955</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13787840</v>
+        <v>19415941</v>
       </c>
       <c r="E45" t="n">
-        <v>1874022</v>
+        <v>3162931</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST2614</t>
+          <t>CUST4406</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>19017375</v>
+        <v>17397005</v>
       </c>
       <c r="E46" t="n">
-        <v>2695170</v>
+        <v>3151122</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST8892</t>
+          <t>CUST5569</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12479653</v>
+        <v>13784126</v>
       </c>
       <c r="E47" t="n">
-        <v>1529894</v>
+        <v>2047733</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST6938</t>
+          <t>CUST9812</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>8481687</v>
+        <v>8849438</v>
       </c>
       <c r="E48" t="n">
-        <v>1623871</v>
+        <v>1562334</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST4352</t>
+          <t>CUST9294</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>12070099</v>
+        <v>19123794</v>
       </c>
       <c r="E49" t="n">
-        <v>1901888</v>
+        <v>3078983</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3062,12 +3062,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST3169</t>
+          <t>CUST3142</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>19456740</v>
+        <v>15058469</v>
       </c>
       <c r="E50" t="n">
-        <v>2310617</v>
+        <v>1825088</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST8892</t>
+          <t>CUST2662</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>17523070</v>
+        <v>24665059</v>
       </c>
       <c r="E51" t="n">
-        <v>2275595</v>
+        <v>3321253</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST4667</t>
+          <t>CUST8948</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>24126202</v>
+        <v>14495157</v>
       </c>
       <c r="E52" t="n">
-        <v>4299645</v>
+        <v>1712460</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3246,25 +3246,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST3108</t>
+          <t>CUST6094</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>11109928</v>
+        <v>20242516</v>
       </c>
       <c r="E53" t="n">
-        <v>2185107</v>
+        <v>3869919</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3278,17 +3278,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST2869</t>
+          <t>CUST8948</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>11407646</v>
+        <v>23499312</v>
       </c>
       <c r="E54" t="n">
-        <v>1169257</v>
+        <v>3848551</v>
       </c>
       <c r="F54" t="n">
         <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST2558</t>
+          <t>CUST9812</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>8893535</v>
+        <v>18857400</v>
       </c>
       <c r="E55" t="n">
-        <v>1083160</v>
+        <v>2072117</v>
       </c>
       <c r="F55" t="n">
         <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST2558</t>
+          <t>CUST7747</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>17423103</v>
+        <v>20356111</v>
       </c>
       <c r="E56" t="n">
-        <v>1753553</v>
+        <v>3346377</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST4366</t>
+          <t>CUST6094</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>15489256</v>
+        <v>11853419</v>
       </c>
       <c r="E57" t="n">
-        <v>2545631</v>
+        <v>2195127</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3516,25 +3516,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST2454</t>
+          <t>CUST2125</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>21004144</v>
+        <v>20687822</v>
       </c>
       <c r="E58" t="n">
-        <v>2978686</v>
+        <v>2674928</v>
       </c>
       <c r="F58" t="n">
         <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST2027</t>
+          <t>CUST6094</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8321683</v>
+        <v>13664758</v>
       </c>
       <c r="E59" t="n">
-        <v>891792</v>
+        <v>2230369</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST3108</t>
+          <t>CUST2272</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10237475</v>
+        <v>10437981</v>
       </c>
       <c r="E60" t="n">
-        <v>1371238</v>
+        <v>1071218</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST6938</t>
+          <t>CUST9735</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>16208022</v>
+        <v>16736370</v>
       </c>
       <c r="E61" t="n">
-        <v>2463008</v>
+        <v>2128568</v>
       </c>
       <c r="F61" t="n">
         <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3777,16 +3777,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3035178</v>
+        <v>1447830</v>
       </c>
       <c r="E2" t="n">
-        <v>585794</v>
+        <v>397855</v>
       </c>
     </row>
     <row r="3">
@@ -3796,16 +3796,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.90000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3475150</v>
+        <v>6705812</v>
       </c>
       <c r="E3" t="n">
-        <v>908004</v>
+        <v>720721</v>
       </c>
     </row>
     <row r="4">
@@ -3815,16 +3815,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4609698</v>
+        <v>11087916</v>
       </c>
       <c r="E4" t="n">
-        <v>960614</v>
+        <v>2958186</v>
       </c>
     </row>
     <row r="5">
@@ -3834,16 +3834,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69</v>
+        <v>73.5</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>9648221</v>
+        <v>9922090</v>
       </c>
       <c r="E5" t="n">
-        <v>1634289</v>
+        <v>2914942</v>
       </c>
     </row>
     <row r="6">
@@ -3853,16 +3853,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.59999999999999</v>
+        <v>65</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1936547</v>
+        <v>3862669</v>
       </c>
       <c r="E6" t="n">
-        <v>345496</v>
+        <v>455373</v>
       </c>
     </row>
     <row r="7">
@@ -3872,16 +3872,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.3</v>
+        <v>69.3</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>13397591</v>
+        <v>2421587</v>
       </c>
       <c r="E7" t="n">
-        <v>3960790</v>
+        <v>327652</v>
       </c>
     </row>
     <row r="8">
@@ -3891,16 +3891,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>61.8</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6438429</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1076496</v>
       </c>
     </row>
     <row r="9">
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>8357050</v>
+        <v>11034456</v>
       </c>
       <c r="E10" t="n">
-        <v>1645303</v>
+        <v>2113972</v>
       </c>
     </row>
     <row r="11">
@@ -3948,16 +3948,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.8</v>
+        <v>76.3</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>18514180</v>
+        <v>5480026</v>
       </c>
       <c r="E11" t="n">
-        <v>5333345</v>
+        <v>1049011</v>
       </c>
     </row>
     <row r="12">
@@ -3967,16 +3967,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>7591087</v>
+        <v>6158273</v>
       </c>
       <c r="E12" t="n">
-        <v>989661</v>
+        <v>1141140</v>
       </c>
     </row>
     <row r="13">
@@ -3986,16 +3986,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.2</v>
+        <v>76</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>12645973</v>
+        <v>9938991</v>
       </c>
       <c r="E13" t="n">
-        <v>2661307</v>
+        <v>1527191</v>
       </c>
     </row>
     <row r="14">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.3</v>
+        <v>64.2</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2650853</v>
+        <v>7232671</v>
       </c>
       <c r="E14" t="n">
-        <v>666655</v>
+        <v>879933</v>
       </c>
     </row>
     <row r="15">
@@ -4062,16 +4062,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.2</v>
+        <v>72.7</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>1783633</v>
+        <v>3782346</v>
       </c>
       <c r="E17" t="n">
-        <v>400872</v>
+        <v>865859</v>
       </c>
     </row>
     <row r="18">
@@ -4081,16 +4081,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.8</v>
+        <v>60.8</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>5918621</v>
+        <v>6394463</v>
       </c>
       <c r="E18" t="n">
-        <v>1520147</v>
+        <v>761237</v>
       </c>
     </row>
     <row r="19">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.59999999999999</v>
+        <v>60</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6373270</v>
+        <v>3000904</v>
       </c>
       <c r="E19" t="n">
-        <v>1157127</v>
+        <v>343043</v>
       </c>
     </row>
     <row r="20">
@@ -4119,16 +4119,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>63.7</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>10930911</v>
+        <v>7958821</v>
       </c>
       <c r="E20" t="n">
-        <v>1832809</v>
+        <v>2334992</v>
       </c>
     </row>
     <row r="21">
@@ -4138,16 +4138,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>64.2</v>
+        <v>67</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>14649099</v>
+        <v>6507112</v>
       </c>
       <c r="E21" t="n">
-        <v>2686310</v>
+        <v>1907599</v>
       </c>
     </row>
     <row r="22">
@@ -4157,16 +4157,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>56.3</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1088630</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>111316</v>
       </c>
     </row>
     <row r="23">
@@ -4195,16 +4195,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>66.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>9944324</v>
+        <v>8724211</v>
       </c>
       <c r="E24" t="n">
-        <v>2270404</v>
+        <v>1188442</v>
       </c>
     </row>
     <row r="25">
@@ -4214,16 +4214,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>11054085</v>
+        <v>4264394</v>
       </c>
       <c r="E25" t="n">
-        <v>2986723</v>
+        <v>683757</v>
       </c>
     </row>
     <row r="26">
@@ -4233,16 +4233,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>76.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>4445740</v>
+        <v>3069256</v>
       </c>
       <c r="E26" t="n">
-        <v>1289101</v>
+        <v>818262</v>
       </c>
     </row>
     <row r="27">
@@ -4252,16 +4252,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>73.2</v>
+        <v>65.8</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>8012137</v>
+        <v>5028060</v>
       </c>
       <c r="E27" t="n">
-        <v>1833965</v>
+        <v>1482853</v>
       </c>
     </row>
     <row r="28">
@@ -4271,16 +4271,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.40000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>2774118</v>
+        <v>16118033</v>
       </c>
       <c r="E28" t="n">
-        <v>472658</v>
+        <v>1721589</v>
       </c>
     </row>
     <row r="29">
@@ -4290,16 +4290,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>67.5</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6300669</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>696074</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
